--- a/target/classes/Book1.xlsx
+++ b/target/classes/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sumerge\Training\Selenium Training\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAE019A-A2C5-45E5-81E2-D062640AAE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C09E3C-059E-4AA8-A3F5-8BE40DD2101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6D3A105F-100C-4B99-B7A7-219FDE3CCBCE}"/>
   </bookViews>
@@ -156,10 +156,10 @@
     <t>signuptest21@gmail.com</t>
   </si>
   <si>
-    <t>valid122new5@gmail.com</t>
-  </si>
-  <si>
-    <t>valid211new5@gmail.com</t>
+    <t>valid122new7@gmail.com</t>
+  </si>
+  <si>
+    <t>valid211new7@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
